--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.181524666666667</v>
+        <v>0.2113743333333333</v>
       </c>
       <c r="H2">
-        <v>3.544574</v>
+        <v>0.634123</v>
       </c>
       <c r="I2">
-        <v>0.006767936934905889</v>
+        <v>0.001217547558311241</v>
       </c>
       <c r="J2">
-        <v>0.00676793693490589</v>
+        <v>0.001217547558311241</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N2">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O2">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P2">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q2">
-        <v>2.463857017893333</v>
+        <v>0.08671836353522222</v>
       </c>
       <c r="R2">
-        <v>22.17471316104</v>
+        <v>0.780465271817</v>
       </c>
       <c r="S2">
-        <v>0.0001186941948628664</v>
+        <v>4.26095363178112E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001186941948628664</v>
+        <v>4.26095363178112E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.181524666666667</v>
+        <v>0.2113743333333333</v>
       </c>
       <c r="H3">
-        <v>3.544574</v>
+        <v>0.634123</v>
       </c>
       <c r="I3">
-        <v>0.006767936934905889</v>
+        <v>0.001217547558311241</v>
       </c>
       <c r="J3">
-        <v>0.00676793693490589</v>
+        <v>0.001217547558311241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P3">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q3">
-        <v>120.3952048877673</v>
+        <v>21.53865838575967</v>
       </c>
       <c r="R3">
-        <v>1083.556843989906</v>
+        <v>193.847925471837</v>
       </c>
       <c r="S3">
-        <v>0.005799935550530408</v>
+        <v>0.001058313613531457</v>
       </c>
       <c r="T3">
-        <v>0.005799935550530408</v>
+        <v>0.001058313613531457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.181524666666667</v>
+        <v>0.2113743333333333</v>
       </c>
       <c r="H4">
-        <v>3.544574</v>
+        <v>0.634123</v>
       </c>
       <c r="I4">
-        <v>0.006767936934905889</v>
+        <v>0.001217547558311241</v>
       </c>
       <c r="J4">
-        <v>0.00676793693490589</v>
+        <v>0.001217547558311241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P4">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q4">
-        <v>17.62993954039267</v>
+        <v>3.153989774560333</v>
       </c>
       <c r="R4">
-        <v>158.669455863534</v>
+        <v>28.385907971043</v>
       </c>
       <c r="S4">
-        <v>0.0008493071895126153</v>
+        <v>0.0001549729911480038</v>
       </c>
       <c r="T4">
-        <v>0.0008493071895126152</v>
+        <v>0.0001549729911480038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>505.512161</v>
       </c>
       <c r="I5">
-        <v>0.9652145576523421</v>
+        <v>0.9706083793241833</v>
       </c>
       <c r="J5">
-        <v>0.9652145576523421</v>
+        <v>0.9706083793241834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N5">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O5">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P5">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q5">
-        <v>351.3848731921733</v>
+        <v>69.13041688926879</v>
       </c>
       <c r="R5">
-        <v>3162.46385872956</v>
+        <v>622.1737520034191</v>
       </c>
       <c r="S5">
-        <v>0.01692766435212883</v>
+        <v>0.003396760373496107</v>
       </c>
       <c r="T5">
-        <v>0.01692766435212882</v>
+        <v>0.003396760373496107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>505.512161</v>
       </c>
       <c r="I6">
-        <v>0.9652145576523421</v>
+        <v>0.9706083793241833</v>
       </c>
       <c r="J6">
-        <v>0.9652145576523421</v>
+        <v>0.9706083793241834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P6">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q6">
         <v>17170.25521172728</v>
@@ -818,10 +818,10 @@
         <v>154532.2969055456</v>
       </c>
       <c r="S6">
-        <v>0.8271622919451961</v>
+        <v>0.8436697640552471</v>
       </c>
       <c r="T6">
-        <v>0.827162291945196</v>
+        <v>0.8436697640552471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>505.512161</v>
       </c>
       <c r="I7">
-        <v>0.9652145576523421</v>
+        <v>0.9706083793241833</v>
       </c>
       <c r="J7">
-        <v>0.9652145576523421</v>
+        <v>0.9706083793241834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P7">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q7">
-        <v>2514.307455666956</v>
+        <v>2514.307455666955</v>
       </c>
       <c r="R7">
         <v>22628.7671010026</v>
       </c>
       <c r="S7">
-        <v>0.1211246013550172</v>
+        <v>0.1235418548954402</v>
       </c>
       <c r="T7">
-        <v>0.1211246013550172</v>
+        <v>0.1235418548954403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.891206</v>
+        <v>4.891205999999999</v>
       </c>
       <c r="H8">
         <v>14.673618</v>
       </c>
       <c r="I8">
-        <v>0.02801750541275197</v>
+        <v>0.0281740731175054</v>
       </c>
       <c r="J8">
-        <v>0.02801750541275197</v>
+        <v>0.02817407311750541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08532</v>
+        <v>0.4102596666666667</v>
       </c>
       <c r="N8">
-        <v>6.25596</v>
+        <v>1.230779</v>
       </c>
       <c r="O8">
-        <v>0.01753772176136817</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="P8">
-        <v>0.01753772176136816</v>
+        <v>0.003499619873322347</v>
       </c>
       <c r="Q8">
-        <v>10.19972969592</v>
+        <v>2.006664543158</v>
       </c>
       <c r="R8">
-        <v>91.79756726328</v>
+        <v>18.059980888422</v>
       </c>
       <c r="S8">
-        <v>0.0004913632143764707</v>
+        <v>9.859854619445881E-05</v>
       </c>
       <c r="T8">
-        <v>0.0004913632143764704</v>
+        <v>9.859854619445881E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.891206</v>
+        <v>4.891205999999999</v>
       </c>
       <c r="H9">
         <v>14.673618</v>
       </c>
       <c r="I9">
-        <v>0.02801750541275197</v>
+        <v>0.0281740731175054</v>
       </c>
       <c r="J9">
-        <v>0.02801750541275197</v>
+        <v>0.02817407311750541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8569724579756384</v>
+        <v>0.8692174743460166</v>
       </c>
       <c r="P9">
-        <v>0.8569724579756383</v>
+        <v>0.8692174743460165</v>
       </c>
       <c r="Q9">
-        <v>498.404955166638</v>
+        <v>498.4049551666379</v>
       </c>
       <c r="R9">
-        <v>4485.644596499743</v>
+        <v>4485.644596499742</v>
       </c>
       <c r="S9">
-        <v>0.02401023047991181</v>
+        <v>0.02448939667723805</v>
       </c>
       <c r="T9">
-        <v>0.02401023047991181</v>
+        <v>0.02448939667723805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.891206</v>
+        <v>4.891205999999999</v>
       </c>
       <c r="H10">
         <v>14.673618</v>
       </c>
       <c r="I10">
-        <v>0.02801750541275197</v>
+        <v>0.0281740731175054</v>
       </c>
       <c r="J10">
-        <v>0.02801750541275197</v>
+        <v>0.02817407311750541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>44.76404100000001</v>
+        <v>44.764041</v>
       </c>
       <c r="O10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="P10">
-        <v>0.1254898202629935</v>
+        <v>0.1272829057806611</v>
       </c>
       <c r="Q10">
-        <v>72.98338197448201</v>
+        <v>72.98338197448199</v>
       </c>
       <c r="R10">
-        <v>656.8504377703381</v>
+        <v>656.850437770338</v>
       </c>
       <c r="S10">
-        <v>0.003515911718463693</v>
+        <v>0.003586077894072898</v>
       </c>
       <c r="T10">
-        <v>0.003515911718463692</v>
+        <v>0.003586077894072899</v>
       </c>
     </row>
   </sheetData>
